--- a/osrm/references/pictures/osrm_customize.xlsx
+++ b/osrm/references/pictures/osrm_customize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xunliu/Desktop/git/telenav/open-source-spec/osrm/references/pictures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28770E30-2BCF-E74C-B452-54A82A205B59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F1E22D-DFA2-674B-9255-23403C2B057C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="460" windowWidth="33600" windowHeight="19240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="460" windowWidth="35220" windowHeight="19600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -109,6 +109,74 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>248</xdr:col>
+      <xdr:colOff>33421</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>289</xdr:col>
+      <xdr:colOff>66842</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>33421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="Rounded Rectangle 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE2CB8A-622B-CB47-970F-9AAA834DA83E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49763947" y="68379474"/>
+          <a:ext cx="8255000" cy="2640263"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="127000">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>183</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -1612,7 +1680,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>updateTurnPenalties()</a:t>
+            <a:t>Customize()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3776,7 +3844,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>updateTurnPenalties()</a:t>
+            <a:t>Customize()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4468,23 +4536,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>248</xdr:col>
-      <xdr:colOff>33421</xdr:colOff>
-      <xdr:row>341</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>200</xdr:col>
+      <xdr:colOff>70853</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>4011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>289</xdr:col>
-      <xdr:colOff>66842</xdr:colOff>
-      <xdr:row>354</xdr:row>
-      <xdr:rowOff>33421</xdr:rowOff>
+      <xdr:col>214</xdr:col>
+      <xdr:colOff>167105</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>133685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="Rounded Rectangle 177">
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE2CB8A-622B-CB47-970F-9AAA834DA83E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FFC8C5-6DE8-9947-82E9-642E6CAC0467}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4492,8 +4560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="49763947" y="68379474"/>
-          <a:ext cx="8255000" cy="2640263"/>
+          <a:off x="40176116" y="52341379"/>
+          <a:ext cx="2903621" cy="1132306"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4814,8 +4882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="AH67:CF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI29" zoomScale="38" workbookViewId="0">
-      <selection activeCell="GF106" sqref="GF106"/>
+    <sheetView tabSelected="1" topLeftCell="BG259" zoomScale="38" workbookViewId="0">
+      <selection activeCell="GS360" sqref="GS360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16"/>
